--- a/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -253,9 +253,6 @@
     <t>18. Dynamic Programming</t>
   </si>
   <si>
-    <t>Longest Increasing Subsequence</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/longest-increasing-subsequence/</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     <t>19. Dynamic Programming</t>
   </si>
   <si>
-    <t>Longest Common Subsequence</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/longest-common-subsequence/</t>
   </si>
   <si>
@@ -1124,6 +1118,12 @@
   </si>
   <si>
     <t>Climbing Stairs Yes</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence yes</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence Yes</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1504,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1551,7 +1551,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1571,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1589,7 +1589,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1629,7 +1629,7 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1649,7 +1649,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1709,7 +1709,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>50</v>
@@ -1724,7 +1724,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>53</v>
@@ -1739,7 +1739,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>56</v>
@@ -1756,7 +1756,7 @@
         <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>60</v>
@@ -1771,7 +1771,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>63</v>
@@ -1786,7 +1786,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>66</v>
@@ -1803,7 +1803,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>70</v>
@@ -1837,983 +1837,983 @@
         <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="D27" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="D28" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="D30" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="D31" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="D32" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="E32" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="D33" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="E33" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="D34" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="E34" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="D35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="E35" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="E36" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="D37" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="E37" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="D39" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="D40" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="E40" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="D41" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="D42" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="D43" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="D44" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="E44" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="D45" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="E45" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="E46" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="D47" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="D48" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="E48" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="D49" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="E49" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="D50" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="E50" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="D51" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="E51" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="D52" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="E52" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="D53" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="E53" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="D55" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="E55" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="D56" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="D58" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="E58" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="D59" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="E59" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="E60" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="D61" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="D62" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="D63" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="D64" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="E64" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="D65" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="E65" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="D66" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="E66" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="D68" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="E68" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="D69" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="E69" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="D70" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="E70" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="D71" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="D72" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="E72" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="D73" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="E73" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="D74" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="E74" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="D75" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="D76" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="E76" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="D77" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="E77" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">

--- a/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -349,9 +349,6 @@
     <t>25. Dynamic Programming</t>
   </si>
   <si>
-    <t>Unique Paths</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/unique-paths/</t>
   </si>
   <si>
@@ -394,9 +391,6 @@
     <t>28. Graph</t>
   </si>
   <si>
-    <t>Course Schedule</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/course-schedule/</t>
   </si>
   <si>
@@ -1124,6 +1118,12 @@
   </si>
   <si>
     <t>Longest Common Subsequence Yes</t>
+  </si>
+  <si>
+    <t>Unique Paths Yes</t>
+  </si>
+  <si>
+    <t>Course Schedule yes</t>
   </si>
 </sst>
 </file>
@@ -1503,8 +1503,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1551,7 +1551,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1571,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1589,7 +1589,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1629,7 +1629,7 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1649,7 +1649,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1709,7 +1709,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>50</v>
@@ -1724,7 +1724,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>53</v>
@@ -1739,7 +1739,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>56</v>
@@ -1756,7 +1756,7 @@
         <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>60</v>
@@ -1771,7 +1771,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>63</v>
@@ -1786,7 +1786,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>66</v>
@@ -1803,7 +1803,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>70</v>
@@ -1837,7 +1837,7 @@
         <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>79</v>
@@ -1854,7 +1854,7 @@
         <v>82</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>83</v>
@@ -1954,866 +1954,866 @@
         <v>110</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="D30" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="D31" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="D32" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="E32" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="D33" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="E33" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="D34" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="E34" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="D35" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="E35" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="E36" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="D37" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="E37" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="D39" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="D40" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="E40" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="D41" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="D42" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="D43" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="D44" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="E44" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="D45" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="E45" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="E46" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="D47" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="D48" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="E48" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="D49" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="E49" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="D50" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="E50" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="D51" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="E51" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="D52" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="E52" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="D53" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="E53" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="D55" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="E55" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="D56" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="D58" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="E58" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="D59" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="E59" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="E60" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="D61" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="D62" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="D63" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="D64" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="E64" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="D65" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="E65" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="D66" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="E66" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="D68" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="E68" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="D69" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="E69" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="D70" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="E70" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="D71" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="D72" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="E72" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="D73" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="E73" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="D74" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="E74" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>199</v>
-      </c>
       <c r="D75" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="D76" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="E76" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="D77" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="E77" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">

--- a/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="373">
   <si>
     <t>Video Solution</t>
   </si>
@@ -418,9 +418,6 @@
     <t>30. Graph</t>
   </si>
   <si>
-    <t>Number of Islands</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/number-of-islands/</t>
   </si>
   <si>
@@ -592,9 +589,6 @@
     <t>42. Linked List</t>
   </si>
   <si>
-    <t>Merge Two Sorted Lists</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
   </si>
   <si>
@@ -622,9 +616,6 @@
     <t>44. Linked List</t>
   </si>
   <si>
-    <t>Remove Nth Node From End Of List</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
   </si>
   <si>
@@ -634,9 +625,6 @@
     <t>45. Linked List</t>
   </si>
   <si>
-    <t>Reorder List</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/reorder-list/</t>
   </si>
   <si>
@@ -649,9 +637,6 @@
     <t>46. Matrix</t>
   </si>
   <si>
-    <t>Set Matrix Zeroes</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/set-matrix-zeroes/</t>
   </si>
   <si>
@@ -739,9 +724,6 @@
     <t>52. String</t>
   </si>
   <si>
-    <t>Minimum Window Substring</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/minimum-window-substring/</t>
   </si>
   <si>
@@ -751,9 +733,6 @@
     <t>53. String</t>
   </si>
   <si>
-    <t>Valid Anagram</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/valid-anagram/</t>
   </si>
   <si>
@@ -937,9 +916,6 @@
     <t>66. Tree</t>
   </si>
   <si>
-    <t>Subtree of Another Tree</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/subtree-of-another-tree/</t>
   </si>
   <si>
@@ -1027,9 +1003,6 @@
     <t>72. Tree</t>
   </si>
   <si>
-    <t>Add and Search Word</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/add-and-search-word-data-structure-design/</t>
   </si>
   <si>
@@ -1124,6 +1097,42 @@
   </si>
   <si>
     <t>Course Schedule yes</t>
+  </si>
+  <si>
+    <t>Number of Islands yes</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists yes</t>
+  </si>
+  <si>
+    <t>Merge K Sorted Lists YES</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End Of List YES</t>
+  </si>
+  <si>
+    <t>Reorder List yes</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes Yes</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring Yes</t>
+  </si>
+  <si>
+    <t>Valid Anagram Yes</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree Yes</t>
+  </si>
+  <si>
+    <t>https://github.com/xizhengszhang/Leetcode_company_frequency</t>
+  </si>
+  <si>
+    <t>Git hub link for ds prctice questions</t>
+  </si>
+  <si>
+    <t>Add and Search Word Yes</t>
   </si>
 </sst>
 </file>
@@ -1503,8 +1512,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1551,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1571,7 +1580,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1589,7 +1598,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1609,7 +1618,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1629,7 +1638,7 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1649,7 +1658,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1709,7 +1718,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>50</v>
@@ -1724,7 +1733,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>53</v>
@@ -1739,7 +1748,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>56</v>
@@ -1756,7 +1765,7 @@
         <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>60</v>
@@ -1771,7 +1780,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>63</v>
@@ -1786,7 +1795,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>66</v>
@@ -1803,7 +1812,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>70</v>
@@ -1837,7 +1846,7 @@
         <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>79</v>
@@ -1854,7 +1863,7 @@
         <v>82</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>83</v>
@@ -1954,7 +1963,7 @@
         <v>110</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>111</v>
@@ -2005,7 +2014,7 @@
         <v>124</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>125</v>
@@ -2039,781 +2048,781 @@
         <v>133</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="E44" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>211</v>
+        <v>366</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>241</v>
+        <v>367</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>245</v>
+        <v>368</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="11" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>307</v>
+        <v>369</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="D75" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2823,7 +2832,12 @@
       <c r="A79" s="14"/>
     </row>
     <row r="80" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E80" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="81" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
